--- a/experiment/excel/chatgpt_data3.xlsx
+++ b/experiment/excel/chatgpt_data3.xlsx
@@ -494,42 +494,42 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>除权除息处理日</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>权益登记日</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>折算日</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>调整后的前收盘价显示日</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>显示的前收盘价</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>除权除息处理日</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>前收盘价</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>基金净值</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
         <is>
           <t>交易金额</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>前收盘价</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>基金净值</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>权益登记日</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>折算日</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>调整后的前收盘价显示日</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
@@ -1142,25 +1142,25 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>10.006元</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>10.006元</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>按净值四舍五入至0.001元</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>10.0055元</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
@@ -1215,25 +1215,25 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>20.004元</t>
-        </is>
-      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>20.004元</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>未按净值四舍五入至0.001元</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>20.0047元</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
@@ -1288,20 +1288,20 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>2023-12-01</t>
-        </is>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
@@ -1357,20 +1357,20 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2023-12-03</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>2023-12-01</t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
@@ -1426,30 +1426,30 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>15.006元</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>15.0055元</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>2023-12-02</t>
-        </is>
-      </c>
+          <t>15.0055元</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
           <t>成功</t>
@@ -1503,30 +1503,30 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>20.004元</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>20.0047元</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>2023-12-02</t>
-        </is>
-      </c>
+          <t>20.0047元</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
           <t>不成功</t>
@@ -2046,13 +2046,13 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
         <is>
           <t>10元</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
@@ -2115,13 +2115,13 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
         <is>
           <t>20元</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
@@ -2244,16 +2244,16 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>200万元人民币</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>200万元人民币</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr">
         <is>
           <t>成功</t>
@@ -2313,16 +2313,16 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>150万元人民币</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>150万元人民币</t>
+        </is>
+      </c>
       <c r="W28" t="inlineStr">
         <is>
           <t>不成功</t>
@@ -2578,13 +2578,13 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
         <is>
           <t>10元</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
@@ -2647,13 +2647,13 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
         <is>
           <t>20元</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
